--- a/ExportedFolder/4.png_1-1.xlsx
+++ b/ExportedFolder/4.png_1-1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Vendor Address</x:t>
   </x:si>
@@ -58,22 +58,37 @@
     <x:t>4490 Oak Drive Albany, NY 12210</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redbud York,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11/02/2019</x:t>
+    <x:t>0.9576534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jessie M Home 2019 Redbud Drive New York, NY 10011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9786843</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-02-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9696457</x:t>
   </x:si>
   <x:si>
     <x:t>INT-001</x:t>
   </x:si>
   <x:si>
-    <x:t>$204.75</x:t>
+    <x:t>0.9369256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204.75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9726257</x:t>
   </x:si>
   <x:si>
     <x:t>table</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.8854983</x:t>
   </x:si>
   <x:si>
     <x:t>Key,Value
@@ -85,11 +100,11 @@
   </x:si>
   <x:si>
     <x:t>Key,Value
-"Address Line 1","Redbud"
-"City","York"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-11-02</x:t>
+"Address Line 1","Jessie M Home 2019 Redbud Drive"
+"City","New York"
+"Country","United States"
+"State / County / Province","New York"
+"Zip Postal Code","10011"</x:t>
   </x:si>
   <x:si>
     <x:t>Description</x:t>
@@ -116,28 +131,79 @@
     <x:t>Amount - Confidence</x:t>
   </x:si>
   <x:si>
-    <x:t>1 Front and rear brake cables</x:t>
+    <x:t>Front and rear brake cables</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.971423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9106174</x:t>
   </x:si>
   <x:si>
     <x:t>100.00</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9932899</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9855298</x:t>
+  </x:si>
+  <x:si>
     <x:t>New set of pedal arms</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9823771</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
     <x:t>25.00</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9915785</x:t>
+  </x:si>
+  <x:si>
     <x:t>50.00</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9917163</x:t>
+  </x:si>
+  <x:si>
     <x:t>Labor 3hrs</x:t>
   </x:si>
   <x:si>
+    <x:t>0.980386</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.8985056</x:t>
+  </x:si>
+  <x:si>
     <x:t>15.00</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9865956</x:t>
+  </x:si>
+  <x:si>
     <x:t>45.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9908832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -183,7 +249,55 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="20">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -556,31 +670,31 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -643,40 +757,40 @@
     </x:row>
     <x:row r="2" spans="1:12">
       <x:c r="A2" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="J2" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -701,88 +815,106 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -807,88 +939,106 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
